--- a/Raw_Sorting_Data_150915.xlsx
+++ b/Raw_Sorting_Data_150915.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="340" windowWidth="25040" windowHeight="13860" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="1980" yWindow="1520" windowWidth="25040" windowHeight="13860" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="6" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="120">
   <si>
     <t>Participant</t>
   </si>
@@ -383,11 +383,21 @@
     <t>Participant: number assignment starting with 8000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="6">
     <font>
       <sz val="12"/>
@@ -902,11 +912,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:W46"/>
+  <dimension ref="A1:W53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
+      <selection pane="bottomLeft" activeCell="W53" sqref="W53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1126,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W46" si="0">SUM(C3:V3)</f>
+        <f t="shared" ref="W3:W53" si="0">SUM(C3:V3)</f>
         <v>3</v>
       </c>
     </row>
@@ -4224,6 +4234,510 @@
       <c r="W46">
         <f t="shared" si="0"/>
         <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
+      <c r="A47">
+        <v>8001</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>1</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
+      <c r="A48">
+        <v>8001</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
+      <c r="A49">
+        <v>8001</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>1</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
+      <c r="A50">
+        <v>8001</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
+      <c r="A51">
+        <v>8001</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>1</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
+      <c r="A52">
+        <v>8001</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>1</v>
+      </c>
+      <c r="U52">
+        <v>0</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
+      <c r="A53">
+        <v>8001</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>1</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>0</v>
+      </c>
+      <c r="U53">
+        <v>1</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -4234,6 +4748,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
     <ignoredError sqref="C1:V1" numberStoredAsText="1"/>
   </ignoredErrors>
@@ -4247,11 +4762,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:W55"/>
+  <dimension ref="A1:W65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
+      <selection pane="bottomLeft" activeCell="W65" sqref="W65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4471,7 +4986,7 @@
         <v>1</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W55" si="0">SUM(C3:V3)</f>
+        <f t="shared" ref="W3:W65" si="0">SUM(C3:V3)</f>
         <v>10</v>
       </c>
     </row>
@@ -8217,6 +8732,726 @@
       <c r="W55">
         <f t="shared" si="0"/>
         <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
+      <c r="A56">
+        <v>8001</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>1</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
+      <c r="A57">
+        <v>8001</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
+      <c r="A58">
+        <v>8001</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
+      <c r="A59">
+        <v>8001</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>1</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
+      <c r="A60">
+        <v>8001</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>1</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23">
+      <c r="A61">
+        <v>8001</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>1</v>
+      </c>
+      <c r="V61">
+        <v>1</v>
+      </c>
+      <c r="W61">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23">
+      <c r="A62">
+        <v>8001</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23">
+      <c r="A63">
+        <v>8001</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>1</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23">
+      <c r="A64">
+        <v>8001</v>
+      </c>
+      <c r="B64">
+        <v>63</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23">
+      <c r="A65">
+        <v>8001</v>
+      </c>
+      <c r="B65">
+        <v>64</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>1</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -8227,6 +9462,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
     <ignoredError sqref="C1:V1" numberStoredAsText="1"/>
   </ignoredErrors>
@@ -8240,11 +9476,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:W58"/>
+  <dimension ref="A1:W65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
+      <selection pane="bottomLeft" activeCell="W65" sqref="W65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8464,7 +9700,7 @@
         <v>1</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W58" si="0">SUM(C3:V3)</f>
+        <f t="shared" ref="W3:W65" si="0">SUM(C3:V3)</f>
         <v>6</v>
       </c>
     </row>
@@ -12426,6 +13662,510 @@
       <c r="W58">
         <f t="shared" si="0"/>
         <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
+      <c r="A59">
+        <v>8001</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
+      <c r="A60">
+        <v>8001</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23">
+      <c r="A61">
+        <v>8001</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23">
+      <c r="A62">
+        <v>8001</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>1</v>
+      </c>
+      <c r="V62">
+        <v>1</v>
+      </c>
+      <c r="W62">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23">
+      <c r="A63">
+        <v>8001</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23">
+      <c r="A64">
+        <v>8001</v>
+      </c>
+      <c r="B64">
+        <v>63</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>1</v>
+      </c>
+      <c r="R64">
+        <v>1</v>
+      </c>
+      <c r="S64">
+        <v>1</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23">
+      <c r="A65">
+        <v>8001</v>
+      </c>
+      <c r="B65">
+        <v>64</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>1</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>1</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -12436,6 +14176,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
     <ignoredError sqref="C1:V1" numberStoredAsText="1"/>
   </ignoredErrors>
@@ -12449,11 +14190,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:W66"/>
+  <dimension ref="A1:W73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B67" sqref="B67"/>
+      <selection pane="bottomLeft" activeCell="W73" sqref="W73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -12673,7 +14414,7 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W66" si="0">SUM(C3:V3)</f>
+        <f t="shared" ref="W3:W73" si="0">SUM(C3:V3)</f>
         <v>5</v>
       </c>
     </row>
@@ -17211,6 +18952,509 @@
       <c r="W66">
         <f t="shared" si="0"/>
         <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23">
+      <c r="A67">
+        <v>8001</v>
+      </c>
+      <c r="B67">
+        <v>66</v>
+      </c>
+      <c r="C67" s="3">
+        <v>0</v>
+      </c>
+      <c r="D67" s="3">
+        <v>0</v>
+      </c>
+      <c r="E67" s="3">
+        <v>0</v>
+      </c>
+      <c r="F67" s="3">
+        <v>0</v>
+      </c>
+      <c r="G67" s="3">
+        <v>0</v>
+      </c>
+      <c r="H67" s="3">
+        <v>0</v>
+      </c>
+      <c r="I67" s="3">
+        <v>0</v>
+      </c>
+      <c r="J67" s="3">
+        <v>0</v>
+      </c>
+      <c r="K67" s="3">
+        <v>0</v>
+      </c>
+      <c r="L67" s="3">
+        <v>1</v>
+      </c>
+      <c r="M67" s="3">
+        <v>0</v>
+      </c>
+      <c r="N67" s="3">
+        <v>0</v>
+      </c>
+      <c r="O67" s="3">
+        <v>0</v>
+      </c>
+      <c r="P67" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="3">
+        <v>0</v>
+      </c>
+      <c r="R67" s="3">
+        <v>0</v>
+      </c>
+      <c r="S67" s="3">
+        <v>0</v>
+      </c>
+      <c r="T67" s="3">
+        <v>1</v>
+      </c>
+      <c r="U67" s="3">
+        <v>0</v>
+      </c>
+      <c r="V67" s="3">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23">
+      <c r="A68">
+        <v>8001</v>
+      </c>
+      <c r="B68">
+        <v>67</v>
+      </c>
+      <c r="C68" s="3">
+        <v>0</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0</v>
+      </c>
+      <c r="E68" s="3">
+        <v>0</v>
+      </c>
+      <c r="F68" s="3">
+        <v>1</v>
+      </c>
+      <c r="G68" s="3">
+        <v>0</v>
+      </c>
+      <c r="H68" s="3">
+        <v>0</v>
+      </c>
+      <c r="I68" s="3">
+        <v>1</v>
+      </c>
+      <c r="J68" s="3">
+        <v>0</v>
+      </c>
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>1</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
+      <c r="A69">
+        <v>8001</v>
+      </c>
+      <c r="B69">
+        <v>68</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0</v>
+      </c>
+      <c r="F69" s="3">
+        <v>0</v>
+      </c>
+      <c r="G69" s="3">
+        <v>0</v>
+      </c>
+      <c r="H69" s="3">
+        <v>1</v>
+      </c>
+      <c r="I69" s="3">
+        <v>0</v>
+      </c>
+      <c r="J69" s="3">
+        <v>0</v>
+      </c>
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>1</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>1</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
+      <c r="A70">
+        <v>8001</v>
+      </c>
+      <c r="B70">
+        <v>69</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>1</v>
+      </c>
+      <c r="S70">
+        <v>1</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
+      <c r="A71">
+        <v>8001</v>
+      </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71" s="3">
+        <v>0</v>
+      </c>
+      <c r="F71" s="3">
+        <v>0</v>
+      </c>
+      <c r="G71" s="3">
+        <v>0</v>
+      </c>
+      <c r="H71" s="3">
+        <v>0</v>
+      </c>
+      <c r="I71" s="3">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <v>1</v>
+      </c>
+      <c r="W71">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
+      <c r="A72">
+        <v>8001</v>
+      </c>
+      <c r="B72">
+        <v>71</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72" s="3">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72" s="3">
+        <v>0</v>
+      </c>
+      <c r="I72" s="3">
+        <v>0</v>
+      </c>
+      <c r="J72" s="3">
+        <v>0</v>
+      </c>
+      <c r="K72" s="3">
+        <v>0</v>
+      </c>
+      <c r="L72" s="3">
+        <v>0</v>
+      </c>
+      <c r="M72" s="3">
+        <v>0</v>
+      </c>
+      <c r="N72" s="3">
+        <v>0</v>
+      </c>
+      <c r="O72" s="3">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+      <c r="R72" s="3">
+        <v>0</v>
+      </c>
+      <c r="S72" s="3">
+        <v>0</v>
+      </c>
+      <c r="T72" s="3">
+        <v>0</v>
+      </c>
+      <c r="U72" s="3">
+        <v>0</v>
+      </c>
+      <c r="V72" s="3">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23">
+      <c r="A73">
+        <v>8001</v>
+      </c>
+      <c r="B73">
+        <v>72</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73" s="3">
+        <v>0</v>
+      </c>
+      <c r="F73" s="3">
+        <v>0</v>
+      </c>
+      <c r="G73" s="3">
+        <v>0</v>
+      </c>
+      <c r="H73" s="3">
+        <v>0</v>
+      </c>
+      <c r="I73" s="3">
+        <v>0</v>
+      </c>
+      <c r="J73" s="3">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -17240,11 +19484,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:W56"/>
+  <dimension ref="A1:W63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D64" sqref="D64"/>
+      <selection pane="bottomLeft" activeCell="W63" sqref="W63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -17464,7 +19708,7 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W56" si="0">SUM(C3:V3)</f>
+        <f t="shared" ref="W3:W63" si="0">SUM(C3:V3)</f>
         <v>4</v>
       </c>
     </row>
@@ -21282,6 +23526,510 @@
       <c r="W56">
         <f t="shared" si="0"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
+      <c r="A57">
+        <v>8001</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>1</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
+      <c r="A58">
+        <v>8001</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>1</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
+      <c r="A59">
+        <v>8001</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+      <c r="P59">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
+      <c r="A60">
+        <v>8001</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <v>1</v>
+      </c>
+      <c r="W60">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23">
+      <c r="A61">
+        <v>8001</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>1</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23">
+      <c r="A62">
+        <v>8001</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23">
+      <c r="A63">
+        <v>8001</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>1</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>1</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -21292,6 +24040,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
     <ignoredError sqref="C1:V1" numberStoredAsText="1"/>
   </ignoredErrors>

--- a/Raw_Sorting_Data_150915.xlsx
+++ b/Raw_Sorting_Data_150915.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="1520" windowWidth="25040" windowHeight="13860" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="11860" yWindow="-100" windowWidth="25040" windowHeight="13840" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="6" r:id="rId1"/>
@@ -24,7 +24,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="127">
+  <si>
+    <t>P6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>P3M1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>P31M</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>tabs</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>set starts w/</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>P6M</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
   <si>
     <t>Participant</t>
   </si>
@@ -384,7 +412,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Set Size (# of exemplars)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -398,7 +426,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -440,6 +468,13 @@
       <sz val="8"/>
       <name val="Verdana"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -463,13 +498,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -866,40 +905,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A2:A6"/>
+  <dimension ref="A2:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="7">
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="7">
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="7">
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>117</v>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="7">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -912,11 +1000,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:W53"/>
+  <dimension ref="A1:W65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W53" sqref="W53"/>
+      <selection pane="bottomLeft" activeCell="W60" sqref="W59:W65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -927,78 +1015,78 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1070,7 +1158,7 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1136,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W53" si="0">SUM(C3:V3)</f>
+        <f t="shared" ref="W3:W65" si="0">SUM(C3:V3)</f>
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1214,7 +1302,7 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1286,7 +1374,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -1358,7 +1446,7 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -1430,7 +1518,7 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -1502,7 +1590,7 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -1574,7 +1662,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -1646,7 +1734,7 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -1718,7 +1806,7 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -1790,7 +1878,7 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -1862,7 +1950,7 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -1934,7 +2022,7 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -2006,7 +2094,7 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -2078,7 +2166,7 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -2150,7 +2238,7 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -2222,7 +2310,7 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -2294,7 +2382,7 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -2366,7 +2454,7 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -2438,7 +2526,7 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -2510,7 +2598,7 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -2582,7 +2670,7 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -2654,7 +2742,7 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -2726,7 +2814,7 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -2798,7 +2886,7 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -2870,7 +2958,7 @@
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -2942,7 +3030,7 @@
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -3014,7 +3102,7 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -3086,7 +3174,7 @@
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -3158,7 +3246,7 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -3230,7 +3318,7 @@
     </row>
     <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -3302,7 +3390,7 @@
     </row>
     <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -3374,7 +3462,7 @@
     </row>
     <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -3446,7 +3534,7 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -3518,7 +3606,7 @@
     </row>
     <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -3590,7 +3678,7 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -3662,7 +3750,7 @@
     </row>
     <row r="39" spans="1:23">
       <c r="A39" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -3734,7 +3822,7 @@
     </row>
     <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -3806,7 +3894,7 @@
     </row>
     <row r="41" spans="1:23">
       <c r="A41" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -3878,7 +3966,7 @@
     </row>
     <row r="42" spans="1:23">
       <c r="A42" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -3950,7 +4038,7 @@
     </row>
     <row r="43" spans="1:23">
       <c r="A43" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -4022,7 +4110,7 @@
     </row>
     <row r="44" spans="1:23">
       <c r="A44" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B44">
         <v>43</v>
@@ -4740,7 +4828,872 @@
         <v>3</v>
       </c>
     </row>
+    <row r="54" spans="1:23">
+      <c r="A54">
+        <v>8002</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>1</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>1</v>
+      </c>
+      <c r="U54">
+        <v>0</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
+      <c r="A55">
+        <v>8002</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>1</v>
+      </c>
+      <c r="P55">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>1</v>
+      </c>
+      <c r="S55">
+        <v>1</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>1</v>
+      </c>
+      <c r="V55">
+        <v>1</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
+      <c r="A56">
+        <v>8003</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>1</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>1</v>
+      </c>
+      <c r="U56">
+        <v>0</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
+      <c r="A57">
+        <v>8003</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+      <c r="P57">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>1</v>
+      </c>
+      <c r="S57">
+        <v>1</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>1</v>
+      </c>
+      <c r="V57">
+        <v>1</v>
+      </c>
+      <c r="W57">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
+      <c r="A58">
+        <v>8004</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>1</v>
+      </c>
+      <c r="R58">
+        <v>1</v>
+      </c>
+      <c r="S58">
+        <v>1</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <v>1</v>
+      </c>
+      <c r="W58">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
+      <c r="A59">
+        <v>8004</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+      <c r="P59">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>1</v>
+      </c>
+      <c r="U59">
+        <v>1</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
+      <c r="A60">
+        <v>8005</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>1</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23">
+      <c r="A61">
+        <v>8005</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23">
+      <c r="A62">
+        <v>8005</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>1</v>
+      </c>
+      <c r="V62">
+        <v>1</v>
+      </c>
+      <c r="W62">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23">
+      <c r="A63">
+        <v>8005</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>1</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23">
+      <c r="A64">
+        <v>8005</v>
+      </c>
+      <c r="B64">
+        <v>63</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>1</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23">
+      <c r="A65">
+        <v>8005</v>
+      </c>
+      <c r="B65">
+        <v>64</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>1</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C2:V100">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
@@ -4762,11 +5715,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:W65"/>
+  <dimension ref="A1:W80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W65" sqref="W65"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X80" sqref="X80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4777,78 +5730,78 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4920,7 +5873,7 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4986,13 +5939,13 @@
         <v>1</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W65" si="0">SUM(C3:V3)</f>
+        <f t="shared" ref="W3:W80" si="0">SUM(C3:V3)</f>
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5064,7 +6017,7 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -5136,7 +6089,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -5208,7 +6161,7 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -5280,7 +6233,7 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -5352,7 +6305,7 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -5424,7 +6377,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -5496,7 +6449,7 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -5568,7 +6521,7 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -5640,7 +6593,7 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -5712,7 +6665,7 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -5784,7 +6737,7 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -5856,7 +6809,7 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -5928,7 +6881,7 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -6000,7 +6953,7 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -6072,7 +7025,7 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -6144,7 +7097,7 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -6216,7 +7169,7 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -6288,7 +7241,7 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -6360,7 +7313,7 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -6432,7 +7385,7 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -6504,7 +7457,7 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -6576,7 +7529,7 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -6648,7 +7601,7 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -6720,7 +7673,7 @@
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -6792,7 +7745,7 @@
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -6864,7 +7817,7 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -6936,7 +7889,7 @@
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -7008,7 +7961,7 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -7080,7 +8033,7 @@
     </row>
     <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -7152,7 +8105,7 @@
     </row>
     <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -7224,7 +8177,7 @@
     </row>
     <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -7296,7 +8249,7 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -7368,7 +8321,7 @@
     </row>
     <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -7440,7 +8393,7 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -7512,7 +8465,7 @@
     </row>
     <row r="39" spans="1:23">
       <c r="A39" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -7584,7 +8537,7 @@
     </row>
     <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -7656,7 +8609,7 @@
     </row>
     <row r="41" spans="1:23">
       <c r="A41" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -7728,7 +8681,7 @@
     </row>
     <row r="42" spans="1:23">
       <c r="A42" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -7800,7 +8753,7 @@
     </row>
     <row r="43" spans="1:23">
       <c r="A43" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -7872,7 +8825,7 @@
     </row>
     <row r="44" spans="1:23">
       <c r="A44" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B44">
         <v>43</v>
@@ -7944,7 +8897,7 @@
     </row>
     <row r="45" spans="1:23">
       <c r="A45" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B45">
         <v>44</v>
@@ -8016,7 +8969,7 @@
     </row>
     <row r="46" spans="1:23">
       <c r="A46" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B46">
         <v>45</v>
@@ -8088,7 +9041,7 @@
     </row>
     <row r="47" spans="1:23">
       <c r="A47" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B47">
         <v>46</v>
@@ -8160,7 +9113,7 @@
     </row>
     <row r="48" spans="1:23">
       <c r="A48" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B48">
         <v>47</v>
@@ -8232,7 +9185,7 @@
     </row>
     <row r="49" spans="1:23">
       <c r="A49" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B49">
         <v>48</v>
@@ -8304,7 +9257,7 @@
     </row>
     <row r="50" spans="1:23">
       <c r="A50" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B50">
         <v>49</v>
@@ -8376,7 +9329,7 @@
     </row>
     <row r="51" spans="1:23">
       <c r="A51" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B51">
         <v>50</v>
@@ -9454,7 +10407,1088 @@
         <v>2</v>
       </c>
     </row>
+    <row r="66" spans="1:23">
+      <c r="A66">
+        <v>8002</v>
+      </c>
+      <c r="B66">
+        <v>65</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23">
+      <c r="A67">
+        <v>8002</v>
+      </c>
+      <c r="B67">
+        <v>66</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>1</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>1</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23">
+      <c r="A68">
+        <v>8002</v>
+      </c>
+      <c r="B68">
+        <v>67</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>1</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>1</v>
+      </c>
+      <c r="W68">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
+      <c r="A69">
+        <v>8002</v>
+      </c>
+      <c r="B69">
+        <v>68</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>1</v>
+      </c>
+      <c r="S69">
+        <v>1</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>1</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
+      <c r="A70">
+        <v>8003</v>
+      </c>
+      <c r="B70">
+        <v>69</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>1</v>
+      </c>
+      <c r="U70">
+        <v>1</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
+      <c r="A71">
+        <v>8003</v>
+      </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>1</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>1</v>
+      </c>
+      <c r="R71">
+        <v>1</v>
+      </c>
+      <c r="S71">
+        <v>1</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <v>1</v>
+      </c>
+      <c r="W71">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
+      <c r="A72">
+        <v>8004</v>
+      </c>
+      <c r="B72">
+        <v>71</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>1</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23">
+      <c r="A73">
+        <v>8004</v>
+      </c>
+      <c r="B73">
+        <v>72</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>1</v>
+      </c>
+      <c r="U73">
+        <v>1</v>
+      </c>
+      <c r="V73">
+        <v>1</v>
+      </c>
+      <c r="W73">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23">
+      <c r="A74">
+        <v>8004</v>
+      </c>
+      <c r="B74">
+        <v>73</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>1</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>1</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23">
+      <c r="A75">
+        <v>8004</v>
+      </c>
+      <c r="B75">
+        <v>74</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>1</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23">
+      <c r="A76">
+        <v>8005</v>
+      </c>
+      <c r="B76">
+        <v>75</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23">
+      <c r="A77">
+        <v>8005</v>
+      </c>
+      <c r="B77">
+        <v>76</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23">
+      <c r="A78">
+        <v>8005</v>
+      </c>
+      <c r="B78">
+        <v>77</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>1</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23">
+      <c r="A79">
+        <v>8005</v>
+      </c>
+      <c r="B79">
+        <v>78</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>1</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>1</v>
+      </c>
+      <c r="U79">
+        <v>0</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23">
+      <c r="A80">
+        <v>8005</v>
+      </c>
+      <c r="B80">
+        <v>79</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>1</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>1</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>1</v>
+      </c>
+      <c r="V80">
+        <v>1</v>
+      </c>
+      <c r="W80">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C2:V100">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
@@ -9462,7 +11496,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
     <ignoredError sqref="C1:V1" numberStoredAsText="1"/>
   </ignoredErrors>
@@ -9476,11 +11509,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:W65"/>
+  <dimension ref="A1:W80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W65" sqref="W65"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W80" sqref="W80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9491,78 +11524,78 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -9634,7 +11667,7 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -9700,13 +11733,13 @@
         <v>1</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W65" si="0">SUM(C3:V3)</f>
+        <f t="shared" ref="W3:W80" si="0">SUM(C3:V3)</f>
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -9778,7 +11811,7 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -9850,7 +11883,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -9922,7 +11955,7 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -9994,7 +12027,7 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -10066,7 +12099,7 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -10138,7 +12171,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -10210,7 +12243,7 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -10282,7 +12315,7 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -10354,7 +12387,7 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -10426,7 +12459,7 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -10498,7 +12531,7 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -10570,7 +12603,7 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -10642,7 +12675,7 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -10714,7 +12747,7 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -10786,7 +12819,7 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -10858,7 +12891,7 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -10930,7 +12963,7 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -11002,7 +13035,7 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -11074,7 +13107,7 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -11146,7 +13179,7 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -11218,7 +13251,7 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -11290,7 +13323,7 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -11362,7 +13395,7 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -11434,7 +13467,7 @@
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -11506,7 +13539,7 @@
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -11578,7 +13611,7 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -11650,7 +13683,7 @@
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -11722,7 +13755,7 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -11794,7 +13827,7 @@
     </row>
     <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -11866,7 +13899,7 @@
     </row>
     <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -11938,7 +13971,7 @@
     </row>
     <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -12010,7 +14043,7 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -12082,7 +14115,7 @@
     </row>
     <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -12154,7 +14187,7 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -12226,7 +14259,7 @@
     </row>
     <row r="39" spans="1:23">
       <c r="A39" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -12298,7 +14331,7 @@
     </row>
     <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -12370,7 +14403,7 @@
     </row>
     <row r="41" spans="1:23">
       <c r="A41" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -12442,7 +14475,7 @@
     </row>
     <row r="42" spans="1:23">
       <c r="A42" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -12514,7 +14547,7 @@
     </row>
     <row r="43" spans="1:23">
       <c r="A43" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -12586,7 +14619,7 @@
     </row>
     <row r="44" spans="1:23">
       <c r="A44" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B44">
         <v>43</v>
@@ -12658,7 +14691,7 @@
     </row>
     <row r="45" spans="1:23">
       <c r="A45" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B45">
         <v>44</v>
@@ -12730,7 +14763,7 @@
     </row>
     <row r="46" spans="1:23">
       <c r="A46" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B46">
         <v>45</v>
@@ -12802,7 +14835,7 @@
     </row>
     <row r="47" spans="1:23">
       <c r="A47" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B47">
         <v>46</v>
@@ -12874,7 +14907,7 @@
     </row>
     <row r="48" spans="1:23">
       <c r="A48" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B48">
         <v>47</v>
@@ -12946,7 +14979,7 @@
     </row>
     <row r="49" spans="1:23">
       <c r="A49" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B49">
         <v>48</v>
@@ -13018,7 +15051,7 @@
     </row>
     <row r="50" spans="1:23">
       <c r="A50" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B50">
         <v>49</v>
@@ -13090,7 +15123,7 @@
     </row>
     <row r="51" spans="1:23">
       <c r="A51" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B51">
         <v>50</v>
@@ -13162,7 +15195,7 @@
     </row>
     <row r="52" spans="1:23">
       <c r="A52" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B52">
         <v>51</v>
@@ -13234,7 +15267,7 @@
     </row>
     <row r="53" spans="1:23">
       <c r="A53" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B53">
         <v>52</v>
@@ -13306,7 +15339,7 @@
     </row>
     <row r="54" spans="1:23">
       <c r="A54" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B54">
         <v>53</v>
@@ -14168,7 +16201,1088 @@
         <v>3</v>
       </c>
     </row>
+    <row r="66" spans="1:23">
+      <c r="A66">
+        <v>8002</v>
+      </c>
+      <c r="B66">
+        <v>65</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>1</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>1</v>
+      </c>
+      <c r="W66">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23">
+      <c r="A67">
+        <v>8002</v>
+      </c>
+      <c r="B67">
+        <v>66</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23">
+      <c r="A68">
+        <v>8002</v>
+      </c>
+      <c r="B68">
+        <v>67</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>1</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>1</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
+      <c r="A69">
+        <v>8002</v>
+      </c>
+      <c r="B69">
+        <v>68</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>1</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>1</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
+      <c r="A70">
+        <v>8003</v>
+      </c>
+      <c r="B70">
+        <v>69</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>1</v>
+      </c>
+      <c r="P70">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>1</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>1</v>
+      </c>
+      <c r="U70">
+        <v>1</v>
+      </c>
+      <c r="V70">
+        <v>1</v>
+      </c>
+      <c r="W70">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
+      <c r="A71">
+        <v>8003</v>
+      </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>1</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>1</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
+      <c r="A72">
+        <v>8004</v>
+      </c>
+      <c r="B72">
+        <v>71</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>1</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>1</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23">
+      <c r="A73">
+        <v>8004</v>
+      </c>
+      <c r="B73">
+        <v>72</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23">
+      <c r="A74">
+        <v>8004</v>
+      </c>
+      <c r="B74">
+        <v>73</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>1</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>1</v>
+      </c>
+      <c r="S74">
+        <v>1</v>
+      </c>
+      <c r="T74">
+        <v>1</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23">
+      <c r="A75">
+        <v>8004</v>
+      </c>
+      <c r="B75">
+        <v>74</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>1</v>
+      </c>
+      <c r="W75">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23">
+      <c r="A76">
+        <v>8005</v>
+      </c>
+      <c r="B76">
+        <v>75</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>1</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23">
+      <c r="A77">
+        <v>8005</v>
+      </c>
+      <c r="B77">
+        <v>76</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <v>1</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>1</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23">
+      <c r="A78">
+        <v>8005</v>
+      </c>
+      <c r="B78">
+        <v>77</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>1</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23">
+      <c r="A79">
+        <v>8005</v>
+      </c>
+      <c r="B79">
+        <v>78</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <v>0</v>
+      </c>
+      <c r="V79">
+        <v>1</v>
+      </c>
+      <c r="W79">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23">
+      <c r="A80">
+        <v>8005</v>
+      </c>
+      <c r="B80">
+        <v>79</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>1</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>1</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C2:V100">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
@@ -14176,7 +17290,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
     <ignoredError sqref="C1:V1" numberStoredAsText="1"/>
   </ignoredErrors>
@@ -14190,11 +17303,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:W73"/>
+  <dimension ref="A1:W90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W73" sqref="W73"/>
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C93" sqref="C93:G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -14205,78 +17318,78 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -14348,7 +17461,7 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -14420,7 +17533,7 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -14492,7 +17605,7 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -14564,7 +17677,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -14636,7 +17749,7 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -14708,7 +17821,7 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -14780,7 +17893,7 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -14852,7 +17965,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -14924,7 +18037,7 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -14996,7 +18109,7 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -15068,7 +18181,7 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -15140,7 +18253,7 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -15212,7 +18325,7 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -15284,7 +18397,7 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -15356,7 +18469,7 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -15428,7 +18541,7 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -15500,7 +18613,7 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -15572,7 +18685,7 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -15644,7 +18757,7 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -15716,7 +18829,7 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -15788,7 +18901,7 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -15860,7 +18973,7 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -15932,7 +19045,7 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -16004,7 +19117,7 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -16076,7 +19189,7 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -16148,7 +19261,7 @@
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -16220,7 +19333,7 @@
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -16292,7 +19405,7 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -16364,7 +19477,7 @@
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -16436,7 +19549,7 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -16508,7 +19621,7 @@
     </row>
     <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -16580,7 +19693,7 @@
     </row>
     <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -16652,7 +19765,7 @@
     </row>
     <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -16724,7 +19837,7 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -16796,7 +19909,7 @@
     </row>
     <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -16868,7 +19981,7 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -16940,7 +20053,7 @@
     </row>
     <row r="39" spans="1:23">
       <c r="A39" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -17012,7 +20125,7 @@
     </row>
     <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -17084,7 +20197,7 @@
     </row>
     <row r="41" spans="1:23">
       <c r="A41" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -17156,7 +20269,7 @@
     </row>
     <row r="42" spans="1:23">
       <c r="A42" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -17228,7 +20341,7 @@
     </row>
     <row r="43" spans="1:23">
       <c r="A43" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -17300,7 +20413,7 @@
     </row>
     <row r="44" spans="1:23">
       <c r="A44" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B44">
         <v>43</v>
@@ -17372,7 +20485,7 @@
     </row>
     <row r="45" spans="1:23">
       <c r="A45" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B45">
         <v>44</v>
@@ -17444,7 +20557,7 @@
     </row>
     <row r="46" spans="1:23">
       <c r="A46" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B46">
         <v>45</v>
@@ -17516,7 +20629,7 @@
     </row>
     <row r="47" spans="1:23">
       <c r="A47" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B47">
         <v>46</v>
@@ -17588,7 +20701,7 @@
     </row>
     <row r="48" spans="1:23">
       <c r="A48" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B48">
         <v>47</v>
@@ -17660,7 +20773,7 @@
     </row>
     <row r="49" spans="1:23">
       <c r="A49" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B49">
         <v>48</v>
@@ -17732,7 +20845,7 @@
     </row>
     <row r="50" spans="1:23">
       <c r="A50" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B50">
         <v>49</v>
@@ -17804,7 +20917,7 @@
     </row>
     <row r="51" spans="1:23">
       <c r="A51" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B51">
         <v>50</v>
@@ -17876,7 +20989,7 @@
     </row>
     <row r="52" spans="1:23">
       <c r="A52" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B52">
         <v>51</v>
@@ -17948,7 +21061,7 @@
     </row>
     <row r="53" spans="1:23">
       <c r="A53" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B53">
         <v>52</v>
@@ -18020,7 +21133,7 @@
     </row>
     <row r="54" spans="1:23">
       <c r="A54" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B54">
         <v>53</v>
@@ -18092,7 +21205,7 @@
     </row>
     <row r="55" spans="1:23">
       <c r="A55" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B55">
         <v>54</v>
@@ -18164,7 +21277,7 @@
     </row>
     <row r="56" spans="1:23">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B56">
         <v>55</v>
@@ -18236,7 +21349,7 @@
     </row>
     <row r="57" spans="1:23">
       <c r="A57" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B57">
         <v>56</v>
@@ -18308,7 +21421,7 @@
     </row>
     <row r="58" spans="1:23">
       <c r="A58" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B58">
         <v>57</v>
@@ -18380,7 +21493,7 @@
     </row>
     <row r="59" spans="1:23">
       <c r="A59" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B59">
         <v>58</v>
@@ -18452,7 +21565,7 @@
     </row>
     <row r="60" spans="1:23">
       <c r="A60" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B60">
         <v>59</v>
@@ -18524,7 +21637,7 @@
     </row>
     <row r="61" spans="1:23">
       <c r="A61" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B61">
         <v>60</v>
@@ -18596,7 +21709,7 @@
     </row>
     <row r="62" spans="1:23">
       <c r="A62" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B62">
         <v>61</v>
@@ -19453,11 +22566,1237 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-      <c r="W73" t="s">
-        <v>119</v>
+      <c r="W73">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23">
+      <c r="A74">
+        <v>8002</v>
+      </c>
+      <c r="B74">
+        <v>73</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74" s="3">
+        <v>0</v>
+      </c>
+      <c r="F74" s="3">
+        <v>1</v>
+      </c>
+      <c r="G74" s="3">
+        <v>1</v>
+      </c>
+      <c r="H74" s="3">
+        <v>0</v>
+      </c>
+      <c r="I74" s="3">
+        <v>1</v>
+      </c>
+      <c r="J74" s="3">
+        <v>0</v>
+      </c>
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>1</v>
+      </c>
+      <c r="W74">
+        <f t="shared" ref="W74:W90" si="1">SUM(C74:V74)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23">
+      <c r="A75">
+        <v>8002</v>
+      </c>
+      <c r="B75">
+        <v>74</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75" s="3">
+        <v>1</v>
+      </c>
+      <c r="F75" s="3">
+        <v>0</v>
+      </c>
+      <c r="G75" s="3">
+        <v>0</v>
+      </c>
+      <c r="H75" s="3">
+        <v>0</v>
+      </c>
+      <c r="I75" s="3">
+        <v>0</v>
+      </c>
+      <c r="J75" s="3">
+        <v>0</v>
+      </c>
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>1</v>
+      </c>
+      <c r="T75" s="3">
+        <v>1</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23">
+      <c r="A76">
+        <v>8002</v>
+      </c>
+      <c r="B76">
+        <v>75</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3">
+        <v>0</v>
+      </c>
+      <c r="G76" s="3">
+        <v>0</v>
+      </c>
+      <c r="H76" s="3">
+        <v>1</v>
+      </c>
+      <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
+        <v>0</v>
+      </c>
+      <c r="K76" s="3">
+        <v>0</v>
+      </c>
+      <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76" s="3">
+        <v>0</v>
+      </c>
+      <c r="O76" s="3">
+        <v>1</v>
+      </c>
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>1</v>
+      </c>
+      <c r="R76" s="3">
+        <v>0</v>
+      </c>
+      <c r="S76" s="3">
+        <v>0</v>
+      </c>
+      <c r="T76" s="3">
+        <v>0</v>
+      </c>
+      <c r="U76" s="3">
+        <v>1</v>
+      </c>
+      <c r="V76" s="3">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23">
+      <c r="A77">
+        <v>8002</v>
+      </c>
+      <c r="B77">
+        <v>76</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77" s="3">
+        <v>0</v>
+      </c>
+      <c r="F77" s="3">
+        <v>0</v>
+      </c>
+      <c r="G77" s="3">
+        <v>0</v>
+      </c>
+      <c r="H77" s="3">
+        <v>0</v>
+      </c>
+      <c r="I77" s="3">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>1</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>1</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23">
+      <c r="A78">
+        <v>8003</v>
+      </c>
+      <c r="B78">
+        <v>77</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0</v>
+      </c>
+      <c r="F78" s="3">
+        <v>0</v>
+      </c>
+      <c r="G78" s="3">
+        <v>1</v>
+      </c>
+      <c r="H78" s="3">
+        <v>1</v>
+      </c>
+      <c r="I78" s="3">
+        <v>0</v>
+      </c>
+      <c r="J78" s="3">
+        <v>0</v>
+      </c>
+      <c r="K78" s="3">
+        <v>0</v>
+      </c>
+      <c r="L78" s="3">
+        <v>0</v>
+      </c>
+      <c r="M78" s="3">
+        <v>0</v>
+      </c>
+      <c r="N78" s="3">
+        <v>0</v>
+      </c>
+      <c r="O78" s="3">
+        <v>1</v>
+      </c>
+      <c r="P78" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="3">
+        <v>1</v>
+      </c>
+      <c r="R78" s="3">
+        <v>0</v>
+      </c>
+      <c r="S78" s="3">
+        <v>0</v>
+      </c>
+      <c r="T78" s="3">
+        <v>0</v>
+      </c>
+      <c r="U78" s="3">
+        <v>1</v>
+      </c>
+      <c r="V78" s="3">
+        <v>1</v>
+      </c>
+      <c r="W78">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23">
+      <c r="A79">
+        <v>8003</v>
+      </c>
+      <c r="B79">
+        <v>78</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79" s="3">
+        <v>1</v>
+      </c>
+      <c r="F79" s="3">
+        <v>1</v>
+      </c>
+      <c r="G79" s="3">
+        <v>0</v>
+      </c>
+      <c r="H79" s="3">
+        <v>0</v>
+      </c>
+      <c r="I79" s="3">
+        <v>1</v>
+      </c>
+      <c r="J79" s="3">
+        <v>1</v>
+      </c>
+      <c r="K79" s="3">
+        <v>1</v>
+      </c>
+      <c r="L79" s="3">
+        <v>1</v>
+      </c>
+      <c r="M79" s="3">
+        <v>1</v>
+      </c>
+      <c r="N79" s="3">
+        <v>1</v>
+      </c>
+      <c r="O79" s="3">
+        <v>0</v>
+      </c>
+      <c r="P79" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q79" s="3">
+        <v>0</v>
+      </c>
+      <c r="R79" s="3">
+        <v>1</v>
+      </c>
+      <c r="S79" s="3">
+        <v>1</v>
+      </c>
+      <c r="T79" s="3">
+        <v>1</v>
+      </c>
+      <c r="U79" s="3">
+        <v>0</v>
+      </c>
+      <c r="V79" s="3">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23">
+      <c r="A80">
+        <v>8004</v>
+      </c>
+      <c r="B80">
+        <v>79</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80" s="3">
+        <v>0</v>
+      </c>
+      <c r="F80" s="3">
+        <v>0</v>
+      </c>
+      <c r="G80" s="3">
+        <v>1</v>
+      </c>
+      <c r="H80" s="3">
+        <v>1</v>
+      </c>
+      <c r="I80" s="3">
+        <v>1</v>
+      </c>
+      <c r="J80" s="3">
+        <v>0</v>
+      </c>
+      <c r="K80" s="3">
+        <v>1</v>
+      </c>
+      <c r="L80" s="3">
+        <v>0</v>
+      </c>
+      <c r="M80" s="3">
+        <v>0</v>
+      </c>
+      <c r="N80" s="3">
+        <v>0</v>
+      </c>
+      <c r="O80" s="3">
+        <v>1</v>
+      </c>
+      <c r="P80" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="3">
+        <v>0</v>
+      </c>
+      <c r="R80" s="3">
+        <v>0</v>
+      </c>
+      <c r="S80" s="3">
+        <v>0</v>
+      </c>
+      <c r="T80" s="3">
+        <v>0</v>
+      </c>
+      <c r="U80" s="3">
+        <v>1</v>
+      </c>
+      <c r="V80" s="3">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23">
+      <c r="A81">
+        <v>8004</v>
+      </c>
+      <c r="B81">
+        <v>80</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
+        <v>1</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>1</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
+        <v>1</v>
+      </c>
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23">
+      <c r="A82">
+        <v>8004</v>
+      </c>
+      <c r="B82">
+        <v>81</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82" s="3">
+        <v>0</v>
+      </c>
+      <c r="F82" s="3">
+        <v>1</v>
+      </c>
+      <c r="G82" s="3">
+        <v>0</v>
+      </c>
+      <c r="H82" s="3">
+        <v>0</v>
+      </c>
+      <c r="I82" s="3">
+        <v>0</v>
+      </c>
+      <c r="J82" s="3">
+        <v>0</v>
+      </c>
+      <c r="K82" s="3">
+        <v>0</v>
+      </c>
+      <c r="L82" s="3">
+        <v>0</v>
+      </c>
+      <c r="M82" s="3">
+        <v>1</v>
+      </c>
+      <c r="N82" s="3">
+        <v>0</v>
+      </c>
+      <c r="O82" s="3">
+        <v>0</v>
+      </c>
+      <c r="P82" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="3">
+        <v>0</v>
+      </c>
+      <c r="R82" s="3">
+        <v>0</v>
+      </c>
+      <c r="S82" s="3">
+        <v>0</v>
+      </c>
+      <c r="T82" s="3">
+        <v>0</v>
+      </c>
+      <c r="U82" s="3">
+        <v>0</v>
+      </c>
+      <c r="V82" s="3">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23">
+      <c r="A83">
+        <v>8004</v>
+      </c>
+      <c r="B83">
+        <v>82</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>1</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23">
+      <c r="A84">
+        <v>8004</v>
+      </c>
+      <c r="B84">
+        <v>84</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84" s="3">
+        <v>0</v>
+      </c>
+      <c r="F84" s="3">
+        <v>0</v>
+      </c>
+      <c r="G84" s="3">
+        <v>0</v>
+      </c>
+      <c r="H84" s="3">
+        <v>0</v>
+      </c>
+      <c r="I84" s="3">
+        <v>0</v>
+      </c>
+      <c r="J84" s="3">
+        <v>0</v>
+      </c>
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>1</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23">
+      <c r="A85">
+        <v>8004</v>
+      </c>
+      <c r="B85">
+        <v>85</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85" s="3">
+        <v>0</v>
+      </c>
+      <c r="F85" s="3">
+        <v>0</v>
+      </c>
+      <c r="G85" s="3">
+        <v>0</v>
+      </c>
+      <c r="H85" s="3">
+        <v>0</v>
+      </c>
+      <c r="I85" s="3">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>1</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85">
+        <v>1</v>
+      </c>
+      <c r="W85">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23">
+      <c r="A86">
+        <v>8005</v>
+      </c>
+      <c r="B86">
+        <v>86</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86" s="3">
+        <v>0</v>
+      </c>
+      <c r="F86" s="3">
+        <v>0</v>
+      </c>
+      <c r="G86" s="3">
+        <v>1</v>
+      </c>
+      <c r="H86" s="3">
+        <v>1</v>
+      </c>
+      <c r="I86" s="3">
+        <v>0</v>
+      </c>
+      <c r="J86" s="3">
+        <v>0</v>
+      </c>
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>1</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>1</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>1</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>1</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23">
+      <c r="A87">
+        <v>8005</v>
+      </c>
+      <c r="B87">
+        <v>87</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87" s="3">
+        <v>0</v>
+      </c>
+      <c r="F87" s="3">
+        <v>0</v>
+      </c>
+      <c r="G87" s="3">
+        <v>0</v>
+      </c>
+      <c r="H87" s="3">
+        <v>0</v>
+      </c>
+      <c r="I87" s="3">
+        <v>1</v>
+      </c>
+      <c r="J87" s="3">
+        <v>0</v>
+      </c>
+      <c r="K87" s="3">
+        <v>1</v>
+      </c>
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>1</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>1</v>
+      </c>
+      <c r="R87" s="3">
+        <v>1</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>1</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23">
+      <c r="A88">
+        <v>8005</v>
+      </c>
+      <c r="B88">
+        <v>88</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88" s="3">
+        <v>0</v>
+      </c>
+      <c r="F88" s="3">
+        <v>1</v>
+      </c>
+      <c r="G88" s="3">
+        <v>0</v>
+      </c>
+      <c r="H88" s="3">
+        <v>0</v>
+      </c>
+      <c r="I88" s="3">
+        <v>0</v>
+      </c>
+      <c r="J88" s="3">
+        <v>0</v>
+      </c>
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3">
+        <v>1</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23">
+      <c r="A89">
+        <v>8005</v>
+      </c>
+      <c r="B89">
+        <v>89</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>1</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23">
+      <c r="A90">
+        <v>8005</v>
+      </c>
+      <c r="B90">
+        <v>90</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90" s="3">
+        <v>0</v>
+      </c>
+      <c r="F90" s="3">
+        <v>0</v>
+      </c>
+      <c r="G90" s="3">
+        <v>0</v>
+      </c>
+      <c r="H90" s="3">
+        <v>0</v>
+      </c>
+      <c r="I90" s="3">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90" s="3">
+        <v>0</v>
+      </c>
+      <c r="L90" s="3">
+        <v>0</v>
+      </c>
+      <c r="M90" s="3">
+        <v>0</v>
+      </c>
+      <c r="N90" s="3">
+        <v>0</v>
+      </c>
+      <c r="O90" s="3">
+        <v>0</v>
+      </c>
+      <c r="P90" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="3">
+        <v>0</v>
+      </c>
+      <c r="R90" s="3">
+        <v>0</v>
+      </c>
+      <c r="S90" s="3">
+        <v>0</v>
+      </c>
+      <c r="T90" s="3">
+        <v>0</v>
+      </c>
+      <c r="U90" s="3">
+        <v>0</v>
+      </c>
+      <c r="V90">
+        <v>1</v>
+      </c>
+      <c r="W90">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C2:V62 C67:V100">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
@@ -19484,11 +23823,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:W63"/>
+  <dimension ref="A1:W78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W63" sqref="W63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V78" sqref="V78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -19499,78 +23838,78 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -19642,7 +23981,7 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -19708,13 +24047,13 @@
         <v>0</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W63" si="0">SUM(C3:V3)</f>
+        <f t="shared" ref="W3:W66" si="0">SUM(C3:V3)</f>
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -19786,7 +24125,7 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -19858,7 +24197,7 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -19930,7 +24269,7 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -20002,7 +24341,7 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -20074,7 +24413,7 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -20146,7 +24485,7 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -20218,7 +24557,7 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -20290,7 +24629,7 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -20362,7 +24701,7 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -20434,7 +24773,7 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -20506,7 +24845,7 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -20578,7 +24917,7 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -20650,7 +24989,7 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -20722,7 +25061,7 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -20794,7 +25133,7 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -20866,7 +25205,7 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -20938,7 +25277,7 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -21010,7 +25349,7 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -21082,7 +25421,7 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -21154,7 +25493,7 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -21226,7 +25565,7 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -21298,7 +25637,7 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -21370,7 +25709,7 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -21442,7 +25781,7 @@
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -21514,7 +25853,7 @@
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -21586,7 +25925,7 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -21658,7 +25997,7 @@
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -21730,7 +26069,7 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -21802,7 +26141,7 @@
     </row>
     <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -21874,7 +26213,7 @@
     </row>
     <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -21946,7 +26285,7 @@
     </row>
     <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -22018,7 +26357,7 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -22090,7 +26429,7 @@
     </row>
     <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -22162,7 +26501,7 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -22234,7 +26573,7 @@
     </row>
     <row r="39" spans="1:23">
       <c r="A39" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -22306,7 +26645,7 @@
     </row>
     <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -22378,7 +26717,7 @@
     </row>
     <row r="41" spans="1:23">
       <c r="A41" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -22450,7 +26789,7 @@
     </row>
     <row r="42" spans="1:23">
       <c r="A42" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -22522,7 +26861,7 @@
     </row>
     <row r="43" spans="1:23">
       <c r="A43" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -22594,7 +26933,7 @@
     </row>
     <row r="44" spans="1:23">
       <c r="A44" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B44">
         <v>43</v>
@@ -22666,7 +27005,7 @@
     </row>
     <row r="45" spans="1:23">
       <c r="A45" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B45">
         <v>44</v>
@@ -22738,7 +27077,7 @@
     </row>
     <row r="46" spans="1:23">
       <c r="A46" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B46">
         <v>45</v>
@@ -22810,7 +27149,7 @@
     </row>
     <row r="47" spans="1:23">
       <c r="A47" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B47">
         <v>46</v>
@@ -22882,7 +27221,7 @@
     </row>
     <row r="48" spans="1:23">
       <c r="A48" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B48">
         <v>47</v>
@@ -22954,7 +27293,7 @@
     </row>
     <row r="49" spans="1:23">
       <c r="A49" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B49">
         <v>48</v>
@@ -23026,7 +27365,7 @@
     </row>
     <row r="50" spans="1:23">
       <c r="A50" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B50">
         <v>49</v>
@@ -23098,7 +27437,7 @@
     </row>
     <row r="51" spans="1:23">
       <c r="A51" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B51">
         <v>50</v>
@@ -23170,7 +27509,7 @@
     </row>
     <row r="52" spans="1:23">
       <c r="A52" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B52">
         <v>51</v>
@@ -24032,15 +28371,1098 @@
         <v>3</v>
       </c>
     </row>
+    <row r="64" spans="1:23">
+      <c r="A64">
+        <v>8002</v>
+      </c>
+      <c r="B64">
+        <v>63</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23">
+      <c r="A65">
+        <v>8002</v>
+      </c>
+      <c r="B65">
+        <v>64</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>1</v>
+      </c>
+      <c r="U65">
+        <v>1</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23">
+      <c r="A66">
+        <v>8002</v>
+      </c>
+      <c r="B66">
+        <v>65</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>1</v>
+      </c>
+      <c r="W66">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23">
+      <c r="A67">
+        <v>8002</v>
+      </c>
+      <c r="B67">
+        <v>66</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>1</v>
+      </c>
+      <c r="S67">
+        <v>1</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <f t="shared" ref="W67:W78" si="1">SUM(C67:V67)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23">
+      <c r="A68">
+        <v>8002</v>
+      </c>
+      <c r="B68">
+        <v>67</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>1</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
+      <c r="A69">
+        <v>8003</v>
+      </c>
+      <c r="B69">
+        <v>68</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>1</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>1</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
+      <c r="A70">
+        <v>8003</v>
+      </c>
+      <c r="B70">
+        <v>69</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>1</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>1</v>
+      </c>
+      <c r="T70">
+        <v>1</v>
+      </c>
+      <c r="U70">
+        <v>1</v>
+      </c>
+      <c r="V70">
+        <v>1</v>
+      </c>
+      <c r="W70">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
+      <c r="A71">
+        <v>8004</v>
+      </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
+      <c r="A72">
+        <v>8004</v>
+      </c>
+      <c r="B72">
+        <v>71</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>1</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>1</v>
+      </c>
+      <c r="T72">
+        <v>1</v>
+      </c>
+      <c r="U72">
+        <v>1</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23">
+      <c r="A73">
+        <v>8004</v>
+      </c>
+      <c r="B73">
+        <v>72</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>1</v>
+      </c>
+      <c r="P73">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>1</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>1</v>
+      </c>
+      <c r="W73">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23">
+      <c r="A74">
+        <v>8005</v>
+      </c>
+      <c r="B74">
+        <v>73</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>1</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23">
+      <c r="A75">
+        <v>8005</v>
+      </c>
+      <c r="B75">
+        <v>74</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <v>1</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23">
+      <c r="A76">
+        <v>8005</v>
+      </c>
+      <c r="B76">
+        <v>75</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>1</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>1</v>
+      </c>
+      <c r="U76">
+        <v>1</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23">
+      <c r="A77">
+        <v>8005</v>
+      </c>
+      <c r="B77">
+        <v>76</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23">
+      <c r="A78">
+        <v>8005</v>
+      </c>
+      <c r="B78">
+        <v>77</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>1</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>1</v>
+      </c>
+      <c r="W78">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <sortState ref="C74:V78">
+    <sortCondition descending="1" ref="C74:C78"/>
+  </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="C2:V100">
+  <conditionalFormatting sqref="C2:V100 W67">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
     <ignoredError sqref="C1:V1" numberStoredAsText="1"/>
   </ignoredErrors>
